--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2303844.68960622</v>
+        <v>2384702.098558567</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903708</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768292</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6711141.947014053</v>
+        <v>6906955.372831279</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>117.0873031728566</v>
       </c>
       <c r="D2" t="n">
-        <v>174.1727935421771</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -674,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -835,7 +837,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>32.88979573812683</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +870,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>256.8454395874278</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>381.8047781162001</v>
+        <v>173.4022076266653</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,22 +1059,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>186.4553972753877</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>191.5624098313079</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>385.2967624026794</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1145,13 +1147,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>11.62496282097257</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1294,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>270.0768799402555</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>106.6302643053142</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>286.1514758687908</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1385,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>45.01538278424634</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>340.5401036035643</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,13 +1663,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>191.9284587841978</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>256.845439587428</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>399.6628415651991</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1859,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2002,25 +2004,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>59.11361164509869</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.3639786985124</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>373.736032213064</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2096,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2257,7 +2259,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>10.013168809319</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2321,10 +2323,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>91.86342916663969</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2375,7 +2377,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>314.0518665500859</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2482,19 +2484,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>101.9893001175701</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>166.7165542762732</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2569,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H26" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -2713,7 +2715,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2722,7 +2724,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>275.3006071043505</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2810,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,16 +2845,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>22.92681701721022</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.3960988839479</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3092,10 +3094,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>88.08110241150655</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>393.844109148868</v>
       </c>
     </row>
     <row r="33">
@@ -3187,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>58.87768236127998</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>193.227927873465</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3272,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>314.0518665500862</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3332,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>136.6868991713732</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>175.5910559730307</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3487,7 +3489,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3509,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>53.20093248929926</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>69.79534084173827</v>
       </c>
       <c r="W40" t="n">
-        <v>51.54389861930782</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,19 +3745,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>397.3360934353472</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3800,7 +3802,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>39.55325131921913</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3898,19 +3900,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>16.32811948417894</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>54.68688746169129</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3992,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>123.3080963527438</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>71.36683641495334</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4138,22 +4140,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>54.68688746169129</v>
+        <v>87.05129078468477</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>970.7079878930531</v>
+        <v>278.7880768993413</v>
       </c>
       <c r="C2" t="n">
-        <v>560.5833972063232</v>
+        <v>160.5180736944356</v>
       </c>
       <c r="D2" t="n">
-        <v>384.6512825172554</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E2" t="n">
-        <v>374.3514710745562</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
-        <v>357.3614630686478</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>692.8507596625949</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M2" t="n">
-        <v>692.8507596625949</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4361,19 +4363,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.766722221062</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1380.929167557543</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W2" t="n">
-        <v>1380.929167557543</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.929167557543</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.929167557543</v>
+        <v>689.0092565638307</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>158.3214934345131</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M3" t="n">
-        <v>675.1644281008383</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>887.0640908004821</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="C4" t="n">
-        <v>715.9707183621986</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="D4" t="n">
-        <v>556.4760736851085</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>556.4760736851085</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>391.8449477956998</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>224.5945567212432</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>74.98710152669986</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4516,22 +4518,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1299.499495805762</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="V4" t="n">
-        <v>1299.499495805762</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="W4" t="n">
-        <v>1299.499495805762</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="X4" t="n">
-        <v>1299.499495805762</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="Y4" t="n">
-        <v>1074.763797194526</v>
+        <v>800.5109188153651</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1696.412113819451</v>
+        <v>1292.371709779047</v>
       </c>
       <c r="C5" t="n">
-        <v>1690.327927173125</v>
+        <v>1286.287523132721</v>
       </c>
       <c r="D5" t="n">
         <v>1285.863997266186</v>
@@ -4571,7 +4573,7 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
         <v>1329.636426430007</v>
@@ -4583,7 +4585,7 @@
         <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>1846.479361096332</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X5" t="n">
-        <v>1702.592889443536</v>
+        <v>1298.552485403132</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.592889443536</v>
+        <v>1298.552485403132</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767163</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N6" t="n">
-        <v>1708.850297433488</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4680,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>490.1153190952399</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C7" t="n">
-        <v>319.0219466569564</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D7" t="n">
-        <v>319.0219466569564</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1145.223475107064</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U7" t="n">
-        <v>1145.223475107064</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="V7" t="n">
-        <v>1145.223475107064</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="W7" t="n">
-        <v>866.1538106159385</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="X7" t="n">
-        <v>677.8150254892843</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="Y7" t="n">
-        <v>677.8150254892843</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1277.096428763703</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>866.9718380769729</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>477.7831891853775</v>
+        <v>926.3505956994404</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>512.0103802163371</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>495.0203722104287</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1329.636426430007</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>1329.636426430007</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>1687.317608428192</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>541.8239817326674</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>697.1429367177207</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.227134123859</v>
+        <v>697.1429367177207</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.5101213811486</v>
+        <v>246.9285405990493</v>
       </c>
       <c r="C10" t="n">
-        <v>368.5101213811486</v>
+        <v>246.9285405990493</v>
       </c>
       <c r="D10" t="n">
-        <v>209.0154767040586</v>
+        <v>246.9285405990493</v>
       </c>
       <c r="E10" t="n">
-        <v>209.0154767040586</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>1298.359053017871</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="W10" t="n">
-        <v>1019.289388526745</v>
+        <v>542.3355846752293</v>
       </c>
       <c r="X10" t="n">
-        <v>780.9455263864284</v>
+        <v>434.6282469930937</v>
       </c>
       <c r="Y10" t="n">
-        <v>556.209827775193</v>
+        <v>434.6282469930937</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2019.153470207598</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1609.028879520868</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1319.986984703907</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>905.6467692208039</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>484.6163571744915</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>75.88807306732367</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>3110.324053086727</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3432.686000881327</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3436.916094107144</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U11" t="n">
-        <v>3179.855602366654</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V11" t="n">
-        <v>2830.018047703134</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W11" t="n">
-        <v>2830.018047703134</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>2429.374649872087</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>2429.374649872087</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>724.5071868952557</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>898.8747121222223</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>898.8747121222223</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N12" t="n">
-        <v>1772.53280423384</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O12" t="n">
-        <v>1772.53280423384</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P12" t="n">
-        <v>1772.53280423384</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.88807306732367</v>
+        <v>872.0592776655355</v>
       </c>
       <c r="C13" t="n">
-        <v>75.88807306732367</v>
+        <v>700.9659052272521</v>
       </c>
       <c r="D13" t="n">
-        <v>75.88807306732367</v>
+        <v>541.471260550162</v>
       </c>
       <c r="E13" t="n">
-        <v>75.88807306732367</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F13" t="n">
-        <v>75.88807306732367</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G13" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1094.073744220186</v>
+        <v>1577.172510691022</v>
       </c>
       <c r="U13" t="n">
-        <v>811.2755967663099</v>
+        <v>1577.172510691022</v>
       </c>
       <c r="V13" t="n">
-        <v>537.3898517058319</v>
+        <v>1577.172510691022</v>
       </c>
       <c r="W13" t="n">
-        <v>258.3201872147063</v>
+        <v>1298.102846199896</v>
       </c>
       <c r="X13" t="n">
-        <v>75.88807306732367</v>
+        <v>1059.75898405958</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.88807306732367</v>
+        <v>1059.75898405958</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1234.456496290856</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>824.3319056041261</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>419.8679756971866</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>75.88807306732367</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>75.88807306732367</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>75.88807306732367</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1580.824445456356</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2357.143036448109</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2829.611790153787</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3473.242646570892</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3473.242646570892</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3179.855602366654</v>
+        <v>4110.830195187051</v>
       </c>
       <c r="V14" t="n">
-        <v>2830.018047703134</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W14" t="n">
-        <v>2446.257746838303</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2045.614349007255</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>1644.677675955345</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>195.626113964111</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>856.7142858833993</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>856.7142858833993</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>856.7142858833993</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>1560.671376429294</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1165.22192336846</v>
+        <v>851.989530876386</v>
       </c>
       <c r="C16" t="n">
-        <v>994.1285509301767</v>
+        <v>851.989530876386</v>
       </c>
       <c r="D16" t="n">
-        <v>834.6339062530867</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>673.7230911214062</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>509.0919652319975</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>341.8415741575409</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>192.2341189629975</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1605.286969688174</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1605.286969688174</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1605.286969688174</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>1605.286969688174</v>
+        <v>851.989530876386</v>
       </c>
       <c r="V16" t="n">
-        <v>1605.286969688174</v>
+        <v>851.989530876386</v>
       </c>
       <c r="W16" t="n">
-        <v>1605.286969688174</v>
+        <v>851.989530876386</v>
       </c>
       <c r="X16" t="n">
-        <v>1577.65732837374</v>
+        <v>851.989530876386</v>
       </c>
       <c r="Y16" t="n">
-        <v>1352.921629762505</v>
+        <v>851.989530876386</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5516,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4269.84331758475</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="18">
@@ -5598,13 +5600,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M18" t="n">
-        <v>754.331869609911</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N18" t="n">
-        <v>1627.989961721529</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.204233320165</v>
+        <v>418.9079176142731</v>
       </c>
       <c r="C19" t="n">
-        <v>555.1108608818815</v>
+        <v>359.19719878084</v>
       </c>
       <c r="D19" t="n">
-        <v>395.6162162047916</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6162162047916</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F19" t="n">
-        <v>230.9850903153828</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>913.9039397142094</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>913.9039397142094</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W19" t="n">
-        <v>913.9039397142094</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X19" t="n">
-        <v>913.9039397142094</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y19" t="n">
-        <v>913.9039397142094</v>
+        <v>606.6076240083174</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C20" t="n">
-        <v>1724.726583806251</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.262653899312</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="21">
@@ -5841,7 +5843,7 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1612.528282382868</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1426.136514262778</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1426.136514262778</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1426.136514262778</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>1152.2507692023</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>873.1811047111746</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.012952997039</v>
+        <v>634.8372425708581</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>410.1015439596227</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2144.727460069145</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C23" t="n">
-        <v>1734.602869382415</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E23" t="n">
         <v>1320.262653899312</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4569.393541938574</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4347.187057885433</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4090.126566144943</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>3740.289011481424</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W23" t="n">
-        <v>3356.528710616592</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X23" t="n">
-        <v>2955.885312785545</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y23" t="n">
-        <v>2554.948639733635</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C24" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D24" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E24" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F24" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G24" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H24" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>3084.569701873628</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R24" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S24" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T24" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U24" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V24" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W24" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X24" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y24" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3630.62439610012</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.531023661836</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D25" t="n">
-        <v>3300.036378984746</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E25" t="n">
-        <v>3300.036378984746</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F25" t="n">
-        <v>3300.036378984746</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>4475.79311641105</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>4372.773621342797</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U25" t="n">
-        <v>4372.773621342797</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V25" t="n">
-        <v>4372.773621342797</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W25" t="n">
-        <v>4093.703956851672</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="X25" t="n">
-        <v>3855.360094711355</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y25" t="n">
-        <v>3630.62439610012</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2459.725286714852</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2049.600696028122</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1645.136766121183</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1230.796550638079</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>809.7661385917668</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>401.0378544845989</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4055.286838127131</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3671.526537262299</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3270.883139431251</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2869.946466379341</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6314,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>846.8530496640672</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C28" t="n">
-        <v>846.8530496640672</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D28" t="n">
-        <v>687.3584049869771</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>526.4475898552967</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
         <v>526.4475898552967</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W28" t="n">
-        <v>1259.288454669347</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X28" t="n">
-        <v>1259.288454669347</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y28" t="n">
-        <v>1034.552756058112</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6491,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6549,13 +6551,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>874.0699105066985</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>906.7368574189954</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C31" t="n">
-        <v>735.6434849807119</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D31" t="n">
         <v>735.6434849807119</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>1254.571728532997</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>1254.571728532997</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>1254.571728532997</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X31" t="n">
-        <v>1016.22786639268</v>
+        <v>1478.666907101365</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.7368574189954</v>
+        <v>1253.93120849013</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6728,22 +6730,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4182.917908737509</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>3833.080354073989</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W32" t="n">
-        <v>3449.320053209158</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C33" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D33" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E33" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G33" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H33" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>3084.569701873628</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S33" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T33" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U33" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V33" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W33" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X33" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>323.8094765544416</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="C34" t="n">
-        <v>152.7161041161581</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D34" t="n">
-        <v>152.7161041161581</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E34" t="n">
-        <v>152.7161041161581</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>152.7161041161581</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>152.7161041161581</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V34" t="n">
-        <v>1065.958701797119</v>
+        <v>1155.798382742071</v>
       </c>
       <c r="W34" t="n">
-        <v>786.8890373059935</v>
+        <v>876.7287182509451</v>
       </c>
       <c r="X34" t="n">
-        <v>548.5451751656769</v>
+        <v>638.3848561106286</v>
       </c>
       <c r="Y34" t="n">
-        <v>323.8094765544416</v>
+        <v>413.6491574993933</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2452.075282119331</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C35" t="n">
-        <v>2041.950691432601</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D35" t="n">
-        <v>1637.486761525662</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6971,16 +6973,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3663.876532666778</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3263.23313483573</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2862.29646178382</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7022,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>242.8511528851661</v>
+        <v>231.3112726112018</v>
       </c>
       <c r="C37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7123,22 +7125,22 @@
         <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>1436.250826191383</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U37" t="n">
-        <v>1258.886123188322</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V37" t="n">
-        <v>985.0003781278438</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="W37" t="n">
-        <v>705.9307136367181</v>
+        <v>643.7466776164815</v>
       </c>
       <c r="X37" t="n">
-        <v>467.5868514964014</v>
+        <v>643.7466776164815</v>
       </c>
       <c r="Y37" t="n">
-        <v>242.8511528851661</v>
+        <v>419.0109790052462</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>866.6187948158295</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>457.8905107086616</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>146.9820133363796</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7202,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7262,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3303.879360348573</v>
+        <v>898.981111021629</v>
       </c>
       <c r="C40" t="n">
-        <v>3132.785987910289</v>
+        <v>727.8877385833455</v>
       </c>
       <c r="D40" t="n">
-        <v>3132.785987910289</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="E40" t="n">
-        <v>3132.785987910289</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F40" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>4150.971659063151</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U40" t="n">
-        <v>3868.173511609275</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V40" t="n">
-        <v>3594.287766548796</v>
+        <v>1365.750481906799</v>
       </c>
       <c r="W40" t="n">
-        <v>3542.223222488889</v>
+        <v>1086.680817415673</v>
       </c>
       <c r="X40" t="n">
-        <v>3303.879360348573</v>
+        <v>1086.680817415673</v>
       </c>
       <c r="Y40" t="n">
-        <v>3303.879360348573</v>
+        <v>1086.680817415673</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1713.545093251264</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C41" t="n">
-        <v>1303.420502564534</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D41" t="n">
-        <v>898.9565726575947</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>484.6163571744915</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>484.6163571744915</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>75.88807306732367</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>1092.116491399555</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1868.435082391309</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2621.616099029927</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3265.246955447032</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>3572.197169313043</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>3315.136677572553</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V41" t="n">
-        <v>2965.299122909033</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W41" t="n">
-        <v>2925.346343798711</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X41" t="n">
-        <v>2524.702945967664</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y41" t="n">
-        <v>2123.766272915754</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K42" t="n">
-        <v>75.88807306732367</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L42" t="n">
-        <v>75.88807306732367</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M42" t="n">
-        <v>918.8651537618904</v>
+        <v>3084.569701873628</v>
       </c>
       <c r="N42" t="n">
-        <v>1742.97328487121</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O42" t="n">
-        <v>1742.97328487121</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P42" t="n">
-        <v>1742.97328487121</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q42" t="n">
-        <v>2092.817749555194</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>257.0122489407515</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C43" t="n">
-        <v>257.0122489407515</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D43" t="n">
-        <v>240.5191989567324</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E43" t="n">
-        <v>240.5191989567324</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F43" t="n">
-        <v>75.88807306732367</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1280.465512340275</v>
+        <v>1567.403314047138</v>
       </c>
       <c r="U43" t="n">
-        <v>997.6673648863996</v>
+        <v>1567.403314047138</v>
       </c>
       <c r="V43" t="n">
-        <v>723.7816198259216</v>
+        <v>1567.403314047138</v>
       </c>
       <c r="W43" t="n">
-        <v>444.7119553347959</v>
+        <v>1567.403314047138</v>
       </c>
       <c r="X43" t="n">
-        <v>444.7119553347959</v>
+        <v>1329.059451906822</v>
       </c>
       <c r="Y43" t="n">
-        <v>444.7119553347959</v>
+        <v>1104.323753295587</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1849.004547290386</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1849.004547290386</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1444.540617383446</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>1030.200401900343</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>609.1699898540307</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>200.4417057468629</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>330.073544535078</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1042.664944347316</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1818.98353533907</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2572.164551977688</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2903.529302962175</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3432.686000881327</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3794.403653366184</v>
+        <v>4590.097170980682</v>
       </c>
       <c r="T44" t="n">
-        <v>3794.403653366184</v>
+        <v>4367.890686927541</v>
       </c>
       <c r="U44" t="n">
-        <v>3794.403653366184</v>
+        <v>4110.830195187051</v>
       </c>
       <c r="V44" t="n">
-        <v>3444.566098702664</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W44" t="n">
-        <v>3060.805797837833</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>2660.162400006785</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2259.225726954875</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>75.88807306732367</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>918.8651537618904</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N45" t="n">
-        <v>1418.420178371929</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>899.268422278243</v>
+        <v>697.5409622935802</v>
       </c>
       <c r="C46" t="n">
-        <v>728.1750498399595</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="D46" t="n">
-        <v>568.6804051628695</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="E46" t="n">
-        <v>407.769590031189</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F46" t="n">
-        <v>243.1384641417803</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>75.88807306732367</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>75.88807306732367</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1605.286969688174</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>1605.286969688174</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U46" t="n">
-        <v>1605.286969688174</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V46" t="n">
-        <v>1605.286969688174</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W46" t="n">
-        <v>1550.047689423839</v>
+        <v>1348.320229439176</v>
       </c>
       <c r="X46" t="n">
-        <v>1311.703827283523</v>
+        <v>1109.97636729886</v>
       </c>
       <c r="Y46" t="n">
-        <v>1086.968128672287</v>
+        <v>885.2406686876245</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>496.3946935832878</v>
+        <v>272.0504334731807</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8000,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,16 +8063,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>173.8482690683349</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>200.7852390175288</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8079,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8219,10 +8221,10 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8231,10 +8233,10 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.2845869185513</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>564.2543476875378</v>
+        <v>558.5343765177352</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,25 +8455,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>296.1630732760186</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>270.501948108868</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8529,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>213.0023571290846</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>421.0562344946766</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8702,10 +8704,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>418.8079047112371</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8766,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>232.2433371714213</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8936,19 +8938,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>570.1534561158895</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>176.7732988419764</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9164,7 +9166,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
@@ -9246,16 +9248,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>574.6635313430244</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9489,10 +9491,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>531.174398074769</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9960,13 +9962,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10197,16 +10199,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>846.2776300172818</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10434,10 +10436,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>531.174398074769</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
@@ -10668,16 +10670,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>529.7246381472005</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10908,13 +10910,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>578.3832942478874</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11078,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,22 +11147,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>531.174398074769</v>
       </c>
       <c r="N42" t="n">
-        <v>885.6258490597295</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,10 +11299,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11309,7 +11311,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>427.9016453070834</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11379,16 +11381,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>557.7944283533852</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>114.2678147390793</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.1378688488186</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>69.65670972470798</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>62.56142803888719</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>23.12472639190906</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23716,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.7564490426709654</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>110.268827068802</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>29.21390846519961</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>32.28731256679851</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>74.40682233203535</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -24184,13 +24186,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24209,10 +24211,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>42.06483528720045</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24263,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>32.28731256679816</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>135.1639515154949</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -24424,13 +24426,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>69.24386924264027</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24455,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H26" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -24661,10 +24663,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9783607418638098</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
@@ -24892,7 +24894,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24901,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y31" t="n">
-        <v>114.092242741175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>308.5558614412304</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>3.083197172522773</v>
       </c>
     </row>
     <row r="33">
@@ -25075,13 +25077,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25090,7 +25092,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>89.23369828131793</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>77.91895973640825</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25160,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>96.14494677818607</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>32.69553954252743</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25327,7 +25329,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>104.3791100063064</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>32.28731256679831</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>201.351546768135</v>
       </c>
       <c r="W40" t="n">
-        <v>224.7350692269065</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25679,7 +25681,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>340.369446536964</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>141.5715787461401</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>182.4663641713736</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>184.4913160458154</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>62.5614280388868</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -26083,7 +26085,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>221.5920803845231</v>
+        <v>189.2276770615296</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>512280.3955722786</v>
+        <v>579297.3350701873</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>512280.3955722786</v>
+        <v>579297.3350701872</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>579297.3350701872</v>
+        <v>579297.3350701875</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>579297.3350701872</v>
+        <v>579297.3350701873</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>579297.3350701872</v>
+        <v>579297.3350701873</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>579297.3350701873</v>
+        <v>579297.3350701872</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>579297.3350701875</v>
+        <v>579297.3350701873</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>579297.3350701875</v>
+        <v>579297.3350701873</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>512280.3955722786</v>
+        <v>579297.3350701872</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>512280.3955722786</v>
+        <v>579297.3350701876</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>488647.179097371</v>
+        <v>488647.1790973707</v>
       </c>
       <c r="C2" t="n">
         <v>488647.1790973708</v>
@@ -26320,25 +26322,25 @@
         <v>488647.1790973708</v>
       </c>
       <c r="E2" t="n">
-        <v>384210.2966792093</v>
+        <v>434473.0013026406</v>
       </c>
       <c r="F2" t="n">
-        <v>384210.2966792092</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="G2" t="n">
         <v>434473.0013026407</v>
       </c>
       <c r="H2" t="n">
+        <v>434473.0013026408</v>
+      </c>
+      <c r="I2" t="n">
+        <v>434473.0013026408</v>
+      </c>
+      <c r="J2" t="n">
         <v>434473.0013026407</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>434473.0013026406</v>
-      </c>
-      <c r="J2" t="n">
-        <v>434473.0013026406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>434473.0013026407</v>
       </c>
       <c r="L2" t="n">
         <v>434473.0013026407</v>
@@ -26347,13 +26349,13 @@
         <v>434473.0013026407</v>
       </c>
       <c r="N2" t="n">
+        <v>434473.0013026406</v>
+      </c>
+      <c r="O2" t="n">
         <v>434473.0013026407</v>
       </c>
-      <c r="O2" t="n">
-        <v>384210.2966792092</v>
-      </c>
       <c r="P2" t="n">
-        <v>384210.2966792091</v>
+        <v>434473.0013026407</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>155118.3712081971</v>
+        <v>57848.94447198567</v>
       </c>
       <c r="E4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="G4" t="n">
         <v>738.1279301446466</v>
@@ -26448,16 +26450,16 @@
         <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446466</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93204.23291756233</v>
+        <v>93204.23291756198</v>
       </c>
       <c r="C6" t="n">
         <v>268159.7428106761</v>
       </c>
       <c r="D6" t="n">
-        <v>268159.7428106762</v>
+        <v>159969.6943601164</v>
       </c>
       <c r="E6" t="n">
-        <v>198545.1329103915</v>
+        <v>335900.7089466884</v>
       </c>
       <c r="F6" t="n">
-        <v>325899.7997001421</v>
+        <v>362869.6631276227</v>
       </c>
       <c r="G6" t="n">
-        <v>303408.208441661</v>
+        <v>362869.6631276227</v>
       </c>
       <c r="H6" t="n">
+        <v>362869.6631276229</v>
+      </c>
+      <c r="I6" t="n">
+        <v>362869.6631276228</v>
+      </c>
+      <c r="J6" t="n">
+        <v>226274.8623217278</v>
+      </c>
+      <c r="K6" t="n">
+        <v>362869.6631276226</v>
+      </c>
+      <c r="L6" t="n">
+        <v>222870.3522628699</v>
+      </c>
+      <c r="M6" t="n">
+        <v>340360.3983535753</v>
+      </c>
+      <c r="N6" t="n">
+        <v>362869.6631276226</v>
+      </c>
+      <c r="O6" t="n">
         <v>362869.6631276227</v>
       </c>
-      <c r="I6" t="n">
-        <v>362869.6631276226</v>
-      </c>
-      <c r="J6" t="n">
-        <v>226274.8623217277</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="P6" t="n">
         <v>362869.6631276227</v>
-      </c>
-      <c r="L6" t="n">
-        <v>362869.6631276227</v>
-      </c>
-      <c r="M6" t="n">
-        <v>256574.8511097479</v>
-      </c>
-      <c r="N6" t="n">
-        <v>362869.6631276227</v>
-      </c>
-      <c r="O6" t="n">
-        <v>325899.7997001421</v>
-      </c>
-      <c r="P6" t="n">
-        <v>325899.799700142</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>288.936041607006</v>
       </c>
       <c r="D2" t="n">
-        <v>226.246497065693</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>82.29278969859027</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>23.12472639190929</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -27603,7 +27605,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27679,7 +27681,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>14.83218573653693</v>
+        <v>223.2347562260717</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27777,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>49.50502624352578</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>30.92593179381498</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>15.12252820519063</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>393.0160384451235</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,16 +28016,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.070007669617723</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.3301592135992</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>400.909295520443</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34720,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>117.7337452574859</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>147.5918456237788</v>
+      </c>
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34799,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34939,11 +34941,11 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
@@ -34951,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.2507825193993</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>506.6900639491204</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>203.2507825193993</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>176.8525848279838</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>156.8878333182356</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>367.8628411009266</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>325.618129085454</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>176.1288133605723</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,19 +35658,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>477.2411653592702</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>120.947516057361</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>516.9120523430244</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36209,10 +36211,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>788.7133462788644</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L41" t="n">
-        <v>482.8978961850426</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37798,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="N42" t="n">
-        <v>832.4324556659795</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,10 +38019,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38029,7 +38031,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>334.7118696813003</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>504.6010349596353</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2384702.098558567</v>
+        <v>2383389.453102987</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029741</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>117.0873031728566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -673,7 +673,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>280.14404917362</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -718,16 +718,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>7.623004784773413</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -873,19 +873,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>256.8454395874278</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>299.3892267387115</v>
       </c>
       <c r="X5" t="n">
-        <v>173.4022076266653</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>36.35268004215163</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.5624098313079</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>11.62496282097257</v>
+        <v>265.7635543364145</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1192,7 +1192,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1293,16 +1293,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>20.66219804733153</v>
       </c>
       <c r="X10" t="n">
-        <v>106.6302643053142</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>410.1968133282714</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>85.48824505609754</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>165.918444594467</v>
       </c>
       <c r="U11" t="n">
-        <v>31.99018014062471</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1530,10 +1530,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>45.01538278424634</v>
+        <v>115.4130206334754</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>370.972945883516</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -1663,16 +1663,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>191.9284587841978</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>67.06998187379949</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>256.845439587428</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>399.6628415651991</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>59.11361164509869</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>220.926337333213</v>
       </c>
     </row>
     <row r="20">
@@ -2092,13 +2092,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>413.7369107533273</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>84.73179601342665</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>254.489886823084</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.013168809319</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>5.997288039389663</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
-        <v>314.0518665500859</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>166.7165542762732</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>351.957370161717</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.68485424712848</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2800,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>373.8316553010464</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2845,13 +2845,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>123.8394724344234</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>239.8763006083866</v>
       </c>
       <c r="X31" t="n">
-        <v>142.5359303380066</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>393.844109148868</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>193.227927873465</v>
+        <v>181.4569614754515</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>39.93142548241837</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3334,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>161.3114771192264</v>
       </c>
       <c r="C37" t="n">
-        <v>136.6868991713732</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>59.82422708687632</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3663,13 +3663,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>72.18456235980075</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>69.79534084173827</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>397.3360934353472</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3900,7 +3900,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3912,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>54.68688746169129</v>
+        <v>5.51678632234345</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.36683641495334</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4039,7 +4039,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>53.94023786121664</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>87.05129078468477</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>278.7880768993413</v>
+        <v>848.9285713584625</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>438.8039806717326</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>438.3804548051972</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>428.0806433624979</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>411.0906353565895</v>
       </c>
       <c r="G2" t="n">
         <v>128.1168483125289</v>
@@ -4330,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>1250.250340018485</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>1250.250340018485</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>1473.706230480572</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W2" t="n">
-        <v>1089.945929615741</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X2" t="n">
-        <v>1089.945929615741</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="Y2" t="n">
-        <v>689.0092565638307</v>
+        <v>1259.149751022952</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959273</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959273</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>800.5109188153651</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1563.463977417347</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1377.072209297258</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1137.52347027396</v>
       </c>
       <c r="U4" t="n">
-        <v>800.5109188153651</v>
+        <v>1137.52347027396</v>
       </c>
       <c r="V4" t="n">
-        <v>800.5109188153651</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="W4" t="n">
-        <v>800.5109188153651</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X4" t="n">
-        <v>800.5109188153651</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y4" t="n">
-        <v>800.5109188153651</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.371709779047</v>
+        <v>1378.723472461974</v>
       </c>
       <c r="C5" t="n">
-        <v>1286.287523132721</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4576,13 +4576,13 @@
         <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
         <v>1726.536628995245</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1473.706230480572</v>
+        <v>1785.840921137969</v>
       </c>
       <c r="X5" t="n">
-        <v>1298.552485403132</v>
+        <v>1785.840921137969</v>
       </c>
       <c r="Y5" t="n">
-        <v>1298.552485403132</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="6">
@@ -4652,16 +4652,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M6" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="M6" t="n">
-        <v>1054.568412147452</v>
-      </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>865.1454348405214</v>
+        <v>554.8374554061483</v>
       </c>
       <c r="C7" t="n">
-        <v>694.0520624022379</v>
+        <v>518.1175765756921</v>
       </c>
       <c r="D7" t="n">
-        <v>534.5574177251478</v>
+        <v>358.622931898602</v>
       </c>
       <c r="E7" t="n">
-        <v>373.6466025934674</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4764,13 +4764,13 @@
         <v>1246.342524902554</v>
       </c>
       <c r="W7" t="n">
-        <v>1246.342524902554</v>
+        <v>967.2728604114279</v>
       </c>
       <c r="X7" t="n">
-        <v>1246.342524902554</v>
+        <v>967.2728604114279</v>
       </c>
       <c r="Y7" t="n">
-        <v>1052.845141234566</v>
+        <v>742.5371618001926</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1740.93911629311</v>
+        <v>2090.776670956628</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.81452560638</v>
+        <v>1680.652080269898</v>
       </c>
       <c r="D8" t="n">
-        <v>926.3505956994404</v>
+        <v>1276.188150362958</v>
       </c>
       <c r="E8" t="n">
-        <v>512.0103802163371</v>
+        <v>861.8479348798551</v>
       </c>
       <c r="F8" t="n">
-        <v>495.0203722104287</v>
+        <v>440.8175228335426</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225776</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="H8" t="n">
         <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736873</v>
       </c>
       <c r="J8" t="n">
         <v>340.2031969351231</v>
@@ -4822,34 +4822,34 @@
         <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883581</v>
+        <v>4260.329627678871</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4260.329627678871</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368438</v>
+        <v>4300.886273368436</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162539</v>
+        <v>4165.605198162537</v>
       </c>
       <c r="T8" t="n">
-        <v>3943.398714109398</v>
+        <v>3943.398714109396</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368908</v>
+        <v>3686.338222368906</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705388</v>
+        <v>3686.338222368906</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.740366840557</v>
+        <v>3302.577921504074</v>
       </c>
       <c r="X8" t="n">
-        <v>2552.096969009509</v>
+        <v>2901.934523673027</v>
       </c>
       <c r="Y8" t="n">
-        <v>2151.160295957599</v>
+        <v>2500.997850621117</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736873</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>541.8239817326674</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>697.1429367177207</v>
+        <v>278.830583030002</v>
       </c>
       <c r="M9" t="n">
-        <v>697.1429367177207</v>
+        <v>278.830583030002</v>
       </c>
       <c r="N9" t="n">
-        <v>1570.801028829339</v>
+        <v>1152.48867514162</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>1856.445765687514</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.9285405990493</v>
+        <v>858.4937294995054</v>
       </c>
       <c r="C10" t="n">
-        <v>246.9285405990493</v>
+        <v>687.4003570612219</v>
       </c>
       <c r="D10" t="n">
-        <v>246.9285405990493</v>
+        <v>527.9057123841319</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736876</v>
+        <v>366.9948972524513</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736876</v>
+        <v>86.01772546736873</v>
       </c>
       <c r="J10" t="n">
         <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>254.6526025948173</v>
+        <v>254.6526025948172</v>
       </c>
       <c r="L10" t="n">
         <v>514.5497028748778</v>
@@ -4989,25 +4989,25 @@
         <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.203396620231</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="U10" t="n">
-        <v>821.4052491663549</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="V10" t="n">
-        <v>821.4052491663549</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="W10" t="n">
-        <v>542.3355846752293</v>
+        <v>1509.272996645102</v>
       </c>
       <c r="X10" t="n">
-        <v>434.6282469930937</v>
+        <v>1270.929134504785</v>
       </c>
       <c r="Y10" t="n">
-        <v>434.6282469930937</v>
+        <v>1046.19343589355</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2549.191389976085</v>
+        <v>2549.191389976083</v>
       </c>
       <c r="C11" t="n">
-        <v>2139.066799289355</v>
+        <v>2139.066799289354</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1734.602869382414</v>
       </c>
       <c r="E11" t="n">
         <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>899.2322418529994</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>490.5039577458316</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>179.5954603735496</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4526.90380932524</v>
+        <v>4494.59049605188</v>
       </c>
       <c r="U11" t="n">
-        <v>4494.590496051882</v>
+        <v>4494.59049605188</v>
       </c>
       <c r="V11" t="n">
-        <v>4144.752941388363</v>
+        <v>4144.752941388361</v>
       </c>
       <c r="W11" t="n">
-        <v>3760.992640523532</v>
+        <v>3760.99264052353</v>
       </c>
       <c r="X11" t="n">
-        <v>3360.349242692484</v>
+        <v>3360.349242692483</v>
       </c>
       <c r="Y11" t="n">
-        <v>2959.412569640574</v>
+        <v>2959.412569640573</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.13812587521</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.13812587521</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N12" t="n">
-        <v>1210.13812587521</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>1914.095216421104</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.0592776655355</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C13" t="n">
-        <v>700.9659052272521</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D13" t="n">
-        <v>541.471260550162</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E13" t="n">
-        <v>541.471260550162</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>376.8401346607533</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5229,22 +5229,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1577.172510691022</v>
+        <v>1506.063785590791</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.172510691022</v>
+        <v>1223.265638136915</v>
       </c>
       <c r="V13" t="n">
-        <v>1577.172510691022</v>
+        <v>949.3798930764369</v>
       </c>
       <c r="W13" t="n">
-        <v>1298.102846199896</v>
+        <v>670.3102285853113</v>
       </c>
       <c r="X13" t="n">
-        <v>1059.75898405958</v>
+        <v>670.3102285853113</v>
       </c>
       <c r="Y13" t="n">
-        <v>1059.75898405958</v>
+        <v>445.574529974076</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1273.952389210086</v>
       </c>
       <c r="F14" t="n">
         <v>899.2322418529996</v>
@@ -5311,19 +5311,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4110.830195187051</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1445.819902064449</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>851.989530876386</v>
+        <v>602.8791410455673</v>
       </c>
       <c r="C16" t="n">
-        <v>851.989530876386</v>
+        <v>535.131684607386</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>535.131684607386</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H16" t="n">
         <v>209.5897435862967</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>851.989530876386</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V16" t="n">
-        <v>851.989530876386</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W16" t="n">
-        <v>851.989530876386</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X16" t="n">
-        <v>851.989530876386</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y16" t="n">
-        <v>851.989530876386</v>
+        <v>602.8791410455673</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.394211974981</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>592.7987223006619</v>
+        <v>242.9542576166784</v>
       </c>
       <c r="M18" t="n">
-        <v>1435.775802995229</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>418.9079176142731</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.24369769062612</v>
       </c>
       <c r="I19" t="n">
+        <v>93.24369769062612</v>
+      </c>
+      <c r="J19" t="n">
+        <v>107.3262470958366</v>
+      </c>
+      <c r="K19" t="n">
+        <v>261.8785748180746</v>
+      </c>
+      <c r="L19" t="n">
+        <v>521.7756750981353</v>
+      </c>
+      <c r="M19" t="n">
+        <v>811.0397315386285</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1091.878513932879</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1351.439124259353</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1557.114564508965</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1622.642594311476</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1537.369875986876</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1350.978107866786</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1111.429368843488</v>
+      </c>
+      <c r="U19" t="n">
+        <v>828.6312213896124</v>
+      </c>
+      <c r="V19" t="n">
+        <v>554.7454763291344</v>
+      </c>
+      <c r="W19" t="n">
+        <v>554.7454763291344</v>
+      </c>
+      <c r="X19" t="n">
+        <v>316.4016141888177</v>
+      </c>
+      <c r="Y19" t="n">
         <v>93.2436976906228</v>
-      </c>
-      <c r="J19" t="n">
-        <v>107.3262470958333</v>
-      </c>
-      <c r="K19" t="n">
-        <v>261.8785748180713</v>
-      </c>
-      <c r="L19" t="n">
-        <v>521.7756750981318</v>
-      </c>
-      <c r="M19" t="n">
-        <v>811.0397315386251</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1091.878513932875</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1351.43912425935</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1557.114564508962</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1622.642594311473</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1622.642594311473</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1622.642594311473</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1622.642594311473</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1622.642594311473</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1348.756849250995</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1069.687184759869</v>
-      </c>
-      <c r="X19" t="n">
-        <v>831.3433226195527</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>606.6076240083174</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2237.518802661711</v>
+        <v>2459.725286714853</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.394211974981</v>
+        <v>2049.600696028123</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.930282068041</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E20" t="n">
-        <v>1008.590066584938</v>
+        <v>1230.79655063808</v>
       </c>
       <c r="F20" t="n">
-        <v>587.5596545386256</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>178.8313704314578</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5782,22 +5782,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4405.124392790651</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W20" t="n">
-        <v>3449.320053209158</v>
+        <v>3671.5265372623</v>
       </c>
       <c r="X20" t="n">
-        <v>3048.67665537811</v>
+        <v>3270.883139431252</v>
       </c>
       <c r="Y20" t="n">
-        <v>2647.7399823262</v>
+        <v>2869.946466379342</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>410.1015439596227</v>
+        <v>865.7197017227595</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1015439596227</v>
+        <v>694.626329284476</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1015439596227</v>
+        <v>535.131684607386</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1015439596227</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F22" t="n">
-        <v>410.1015439596227</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G22" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1612.528282382868</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1426.136514262778</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T22" t="n">
-        <v>1426.136514262778</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U22" t="n">
-        <v>1426.136514262778</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V22" t="n">
-        <v>1152.2507692023</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="W22" t="n">
-        <v>873.1811047111746</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="X22" t="n">
-        <v>634.8372425708581</v>
+        <v>1059.477274823258</v>
       </c>
       <c r="Y22" t="n">
-        <v>410.1015439596227</v>
+        <v>1053.419408116804</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2134.851174492981</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1724.726583806251</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -5992,7 +5992,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3730.41272590526</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3346.652425040428</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2946.009027209381</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2545.072354157471</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M24" t="n">
-        <v>3084.569701873628</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N24" t="n">
-        <v>3958.227793985246</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>1350.978107866783</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>1350.978107866783</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>1350.978107866783</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>1182.57754799176</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6411,25 +6411,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1564.375064768919</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1324.826325745621</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1042.028178291745</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>768.1424332312672</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E29" t="n">
         <v>1320.262653899312</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4401.813433128853</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1066.231502096085</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C31" t="n">
-        <v>895.138129657802</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D31" t="n">
-        <v>735.6434849807119</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E31" t="n">
-        <v>574.7326698490315</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F31" t="n">
-        <v>410.1015439596227</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G31" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>498.837950905396</v>
       </c>
       <c r="X31" t="n">
-        <v>1478.666907101365</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="Y31" t="n">
-        <v>1253.93120849013</v>
+        <v>260.4940887650794</v>
       </c>
     </row>
     <row r="32">
@@ -6733,16 +6733,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
         <v>2873.060806957647</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>2615.69568868064</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>3084.569701873628</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N33" t="n">
-        <v>3958.227793985246</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.6491574993933</v>
+        <v>689.7852158962135</v>
       </c>
       <c r="C34" t="n">
-        <v>413.6491574993933</v>
+        <v>518.69184345793</v>
       </c>
       <c r="D34" t="n">
-        <v>254.1545128223033</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>1350.978107866783</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V34" t="n">
-        <v>1155.798382742071</v>
+        <v>1156.554586781383</v>
       </c>
       <c r="W34" t="n">
-        <v>876.7287182509451</v>
+        <v>877.4849222902578</v>
       </c>
       <c r="X34" t="n">
-        <v>638.3848561106286</v>
+        <v>877.4849222902578</v>
       </c>
       <c r="Y34" t="n">
-        <v>413.6491574993933</v>
+        <v>877.4849222902578</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2503.174400507722</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2093.049809820992</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1688.585879914052</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1274.245664430949</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>853.2152523846366</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>444.4869682774688</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>133.5784709051868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6967,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2913.395580172211</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>231.3112726112018</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7122,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1196.702087168085</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>922.8163421076072</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>643.7466776164815</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X37" t="n">
-        <v>643.7466776164815</v>
+        <v>588.0661006335047</v>
       </c>
       <c r="Y37" t="n">
-        <v>419.0109790052462</v>
+        <v>588.0661006335047</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>153.6722098995888</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>898.981111021629</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="C40" t="n">
-        <v>727.8877385833455</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="D40" t="n">
-        <v>568.3930939062554</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="E40" t="n">
-        <v>407.4822787745749</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F40" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G40" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1549.728894958139</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1363.337126838049</v>
       </c>
       <c r="T40" t="n">
-        <v>1436.250826191383</v>
+        <v>1123.788387814751</v>
       </c>
       <c r="U40" t="n">
-        <v>1436.250826191383</v>
+        <v>840.9902403608754</v>
       </c>
       <c r="V40" t="n">
-        <v>1365.750481906799</v>
+        <v>840.9902403608754</v>
       </c>
       <c r="W40" t="n">
-        <v>1086.680817415673</v>
+        <v>561.9205758697498</v>
       </c>
       <c r="X40" t="n">
-        <v>1086.680817415673</v>
+        <v>561.9205758697498</v>
       </c>
       <c r="Y40" t="n">
-        <v>1086.680817415673</v>
+        <v>561.9205758697498</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2459.725286714852</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>2049.600696028122</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7414,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7444,19 +7444,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4405.12439279065</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>4055.286838127131</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3671.526537262299</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>3270.883139431251</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2869.946466379341</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>2615.69568868064</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M42" t="n">
-        <v>3084.569701873628</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N42" t="n">
-        <v>3958.227793985246</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.6240469015422</v>
+        <v>694.626329284476</v>
       </c>
       <c r="C43" t="n">
-        <v>745.5306744632587</v>
+        <v>694.626329284476</v>
       </c>
       <c r="D43" t="n">
-        <v>586.0360297861687</v>
+        <v>535.131684607386</v>
       </c>
       <c r="E43" t="n">
-        <v>425.1252146544881</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4940887650794</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1567.403314047138</v>
+        <v>1345.405596430072</v>
       </c>
       <c r="U43" t="n">
-        <v>1567.403314047138</v>
+        <v>1345.405596430072</v>
       </c>
       <c r="V43" t="n">
-        <v>1567.403314047138</v>
+        <v>1345.405596430072</v>
       </c>
       <c r="W43" t="n">
-        <v>1567.403314047138</v>
+        <v>1345.405596430072</v>
       </c>
       <c r="X43" t="n">
-        <v>1329.059451906822</v>
+        <v>1107.061734289756</v>
       </c>
       <c r="Y43" t="n">
-        <v>1104.323753295587</v>
+        <v>882.3260356785204</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C44" t="n">
         <v>2139.066799289355</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4590.097170980682</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4367.890686927541</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4110.830195187051</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>1597.308950304478</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1597.308950304478</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>697.5409622935802</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C46" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1436.250826191383</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>1436.250826191383</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U46" t="n">
-        <v>1436.250826191383</v>
+        <v>1243.336048214871</v>
       </c>
       <c r="V46" t="n">
-        <v>1436.250826191383</v>
+        <v>969.4503031543929</v>
       </c>
       <c r="W46" t="n">
-        <v>1348.320229439176</v>
+        <v>690.3806386632673</v>
       </c>
       <c r="X46" t="n">
-        <v>1109.97636729886</v>
+        <v>452.0367765229507</v>
       </c>
       <c r="Y46" t="n">
-        <v>885.2406686876245</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L2" t="n">
-        <v>272.0504334731807</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8002,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,25 +8063,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>527.2265162238737</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>200.7852390175288</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8224,16 +8224,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P5" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8300,10 +8300,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>558.5343765177352</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
@@ -8312,7 +8312,7 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8470,10 +8470,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>270.501948108868</v>
+        <v>594.907005477848</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>213.0023571290846</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -8546,16 +8546,16 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>303.2511867883841</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,19 +8774,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>70.76403821083073</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>371.9455010937738</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>560.7155587704844</v>
+        <v>207.3373116149456</v>
       </c>
       <c r="M18" t="n">
         <v>909.0562844399999</v>
@@ -9263,7 +9263,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
@@ -9488,16 +9488,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>480.289209997696</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
@@ -9725,16 +9725,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.174398074769</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>480.289209997696</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.174398074769</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10451,7 +10451,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10688,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -10925,7 +10925,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,22 +11138,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>585.6215843269604</v>
       </c>
       <c r="M42" t="n">
-        <v>531.174398074769</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11302,7 +11302,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>54.0659746181428</v>
       </c>
       <c r="U11" t="n">
-        <v>222.4997066824603</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>192.1378688488186</v>
+        <v>121.7402309995895</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>45.84716204233325</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>62.56142803888719</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>102.3124568401012</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388855</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>23.12472639190906</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7564490426709654</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>110.268827068802</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23907,10 +23907,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.562004291909943</v>
       </c>
     </row>
     <row r="20">
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.083197172521977</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24022,7 +24022,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>74.40682233203535</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>216.4910535857333</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
-        <v>32.28731256679816</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>69.24386924264027</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>54.06597461814556</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>126.8429961917603</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>96.14494677818635</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>36.40266723782779</v>
       </c>
       <c r="X31" t="n">
-        <v>93.42449318090684</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24973,7 +24973,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.083197172522773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25092,10 +25092,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>77.91895973640825</v>
+        <v>89.68992613442171</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>45.5568195736792</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>24.51123221087755</v>
       </c>
       <c r="C37" t="n">
-        <v>32.69553954252743</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25323,10 +25323,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25362,25 +25362,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>25.66401796922125</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>12.23542878155359</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>201.351546768135</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>182.4663641713736</v>
+        <v>231.6364653107215</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>36.36515802722619</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.5614280388868</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>226.0299281181204</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>189.2276770615296</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>579297.3350701873</v>
+        <v>579297.3350701877</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>579297.3350701872</v>
+        <v>579297.3350701875</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>579297.3350701875</v>
+        <v>579297.3350701873</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>579297.3350701873</v>
+        <v>579297.3350701875</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>579297.3350701873</v>
+        <v>579297.3350701875</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>579297.3350701873</v>
+        <v>579297.3350701875</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>579297.3350701873</v>
+        <v>579297.3350701875</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>579297.3350701872</v>
+        <v>579297.3350701873</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>579297.3350701876</v>
+        <v>579297.3350701875</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>488647.1790973707</v>
+        <v>488647.1790973708</v>
       </c>
       <c r="C2" t="n">
         <v>488647.1790973708</v>
@@ -26322,7 +26322,7 @@
         <v>488647.1790973708</v>
       </c>
       <c r="E2" t="n">
-        <v>434473.0013026406</v>
+        <v>434473.0013026408</v>
       </c>
       <c r="F2" t="n">
         <v>434473.0013026407</v>
@@ -26331,16 +26331,16 @@
         <v>434473.0013026407</v>
       </c>
       <c r="H2" t="n">
-        <v>434473.0013026408</v>
+        <v>434473.0013026407</v>
       </c>
       <c r="I2" t="n">
         <v>434473.0013026408</v>
       </c>
       <c r="J2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026405</v>
       </c>
       <c r="K2" t="n">
-        <v>434473.0013026406</v>
+        <v>434473.0013026405</v>
       </c>
       <c r="L2" t="n">
         <v>434473.0013026407</v>
@@ -26349,13 +26349,13 @@
         <v>434473.0013026407</v>
       </c>
       <c r="N2" t="n">
+        <v>434473.0013026408</v>
+      </c>
+      <c r="O2" t="n">
         <v>434473.0013026406</v>
       </c>
-      <c r="O2" t="n">
-        <v>434473.0013026407</v>
-      </c>
       <c r="P2" t="n">
-        <v>434473.0013026407</v>
+        <v>434473.0013026406</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171827.4689100685</v>
+        <v>171827.4689100683</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.95418093424</v>
+        <v>26968.95418093447</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647527</v>
+        <v>139999.3108647526</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.26477404744</v>
+        <v>22509.26477404761</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>57848.94447198567</v>
+        <v>57848.94447198573</v>
       </c>
       <c r="E4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446916</v>
       </c>
       <c r="F4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446916</v>
       </c>
       <c r="G4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446916</v>
       </c>
       <c r="H4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446916</v>
       </c>
       <c r="I4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="J4" t="n">
         <v>738.1279301446466</v>
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520026</v>
+        <v>99001.07135520023</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93204.23291756198</v>
+        <v>93204.2329175621</v>
       </c>
       <c r="C6" t="n">
-        <v>268159.7428106761</v>
+        <v>268159.7428106762</v>
       </c>
       <c r="D6" t="n">
-        <v>159969.6943601164</v>
+        <v>159969.6943601165</v>
       </c>
       <c r="E6" t="n">
-        <v>335900.7089466884</v>
+        <v>335720.1283540392</v>
       </c>
       <c r="F6" t="n">
-        <v>362869.6631276227</v>
+        <v>362689.0825349736</v>
       </c>
       <c r="G6" t="n">
-        <v>362869.6631276227</v>
+        <v>362689.0825349736</v>
       </c>
       <c r="H6" t="n">
-        <v>362869.6631276229</v>
+        <v>362689.0825349736</v>
       </c>
       <c r="I6" t="n">
-        <v>362869.6631276228</v>
+        <v>362689.0825349737</v>
       </c>
       <c r="J6" t="n">
-        <v>226274.8623217278</v>
+        <v>226094.2817290785</v>
       </c>
       <c r="K6" t="n">
-        <v>362869.6631276226</v>
+        <v>362689.0825349735</v>
       </c>
       <c r="L6" t="n">
-        <v>222870.3522628699</v>
+        <v>222689.7716702211</v>
       </c>
       <c r="M6" t="n">
-        <v>340360.3983535753</v>
+        <v>340179.817760926</v>
       </c>
       <c r="N6" t="n">
-        <v>362869.6631276226</v>
+        <v>362689.0825349737</v>
       </c>
       <c r="O6" t="n">
-        <v>362869.6631276227</v>
+        <v>362689.0825349735</v>
       </c>
       <c r="P6" t="n">
-        <v>362869.6631276227</v>
+        <v>362689.0825349735</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.816863187837176e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.816863187837176e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.816863187837176e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.816863187837176e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.816863187837176e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26795,7 +26795,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>1075.22156834211</v>
+        <v>1075.221568342109</v>
       </c>
       <c r="E4" t="n">
         <v>1165.546221132785</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.816863187837176e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720834</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067594</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720834</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.816863187837176e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720841</v>
+        <v>553.1579979720834</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067526</v>
+        <v>90.32465279067594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>288.936041607006</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>124.4969520924761</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>76.79698635658093</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>23.12472639190929</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>80.53347111747161</v>
       </c>
       <c r="X5" t="n">
-        <v>223.2347562260717</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.029758671749</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27836,13 +27836,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.92593179381498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>393.0160384451235</v>
+        <v>138.8774469296816</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>255.6167697988828</v>
       </c>
       <c r="X10" t="n">
-        <v>129.3301592135992</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,16 +28089,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.816863187837176e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.816863187837176e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.511456456515045e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.816863187837176e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28146,10 +28146,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.816863187837176e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.816863187837176e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28535,7 +28535,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.290096203393822e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28739,7 +28739,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.290096203393822e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>9.919888050433634e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>176.5650354103359</v>
-      </c>
-      <c r="M2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34722,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>471.1119924130246</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>147.5918456237788</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34944,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>400.9092955204429</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35020,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>500.9700927793178</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
@@ -35032,7 +35032,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35190,10 +35190,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>176.8525848279838</v>
+        <v>501.2576421969638</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>156.8878333182356</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>248.9915517855803</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35427,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>13.19975447241331</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>317.6858660909701</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>504.6010349596355</v>
+        <v>151.2227878040966</v>
       </c>
       <c r="M18" t="n">
         <v>851.4920007015825</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>422.537730997696</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>422.537730997696</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363516</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
